--- a/phases.xlsx
+++ b/phases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgtjo\PycharmProjects\MissedStopsReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\PycharmProjects\MissedStopsReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4933D3B-0569-414B-B732-AA751EA7443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D2F33-89F2-4B02-880F-1FE95F83A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="2625" windowWidth="46785" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,11 +163,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258:B263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +459,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,7 +472,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -477,13 +480,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>44896</v>
       </c>
     </row>
@@ -491,13 +494,13 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>44897</v>
       </c>
     </row>
@@ -505,13 +508,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>44898</v>
       </c>
     </row>
@@ -519,13 +522,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>44899</v>
       </c>
     </row>
@@ -533,13 +536,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>44900</v>
       </c>
     </row>
@@ -547,13 +550,13 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>44901</v>
       </c>
     </row>
@@ -561,13 +564,13 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>44902</v>
       </c>
     </row>
@@ -581,7 +584,7 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>44903</v>
       </c>
     </row>
@@ -595,7 +598,7 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>44904</v>
       </c>
     </row>
@@ -609,7 +612,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>44905</v>
       </c>
     </row>
@@ -623,7 +626,7 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>44906</v>
       </c>
     </row>
@@ -637,7 +640,7 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>44907</v>
       </c>
     </row>
@@ -651,7 +654,7 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>44908</v>
       </c>
     </row>
@@ -665,7 +668,7 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>44909</v>
       </c>
     </row>
@@ -679,7 +682,7 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>44910</v>
       </c>
     </row>
@@ -693,7 +696,7 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>44911</v>
       </c>
     </row>
@@ -707,7 +710,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>44912</v>
       </c>
     </row>
@@ -721,7 +724,7 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>44913</v>
       </c>
     </row>
@@ -735,7 +738,7 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>44914</v>
       </c>
     </row>
@@ -749,7 +752,7 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>44915</v>
       </c>
     </row>
@@ -763,7 +766,7 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>44916</v>
       </c>
     </row>
@@ -771,13 +774,13 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>44917</v>
       </c>
     </row>
@@ -785,13 +788,13 @@
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>44918</v>
       </c>
     </row>
@@ -799,13 +802,13 @@
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>44919</v>
       </c>
     </row>
@@ -813,13 +816,13 @@
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>44920</v>
       </c>
     </row>
@@ -827,13 +830,13 @@
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>44921</v>
       </c>
     </row>
@@ -841,13 +844,13 @@
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>44922</v>
       </c>
     </row>
@@ -855,13 +858,13 @@
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>44923</v>
       </c>
     </row>
@@ -869,13 +872,13 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>44924</v>
       </c>
     </row>
@@ -883,13 +886,13 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>44925</v>
       </c>
     </row>
@@ -897,13 +900,13 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>44926</v>
       </c>
     </row>
@@ -911,13 +914,13 @@
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>44927</v>
       </c>
     </row>
@@ -925,13 +928,13 @@
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>44928</v>
       </c>
     </row>
@@ -939,13 +942,13 @@
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>44929</v>
       </c>
     </row>
@@ -953,13 +956,13 @@
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <v>44930</v>
       </c>
     </row>
@@ -973,7 +976,7 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>44931</v>
       </c>
     </row>
@@ -987,7 +990,7 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>44932</v>
       </c>
     </row>
@@ -1001,7 +1004,7 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>44933</v>
       </c>
     </row>
@@ -1015,7 +1018,7 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>44934</v>
       </c>
     </row>
@@ -1029,7 +1032,7 @@
       <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>44935</v>
       </c>
     </row>
@@ -1043,7 +1046,7 @@
       <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>44936</v>
       </c>
     </row>
@@ -1057,7 +1060,7 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>44937</v>
       </c>
     </row>
@@ -1071,7 +1074,7 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4">
         <v>44938</v>
       </c>
     </row>
@@ -1085,7 +1088,7 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <v>44939</v>
       </c>
     </row>
@@ -1099,7 +1102,7 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>44940</v>
       </c>
     </row>
@@ -1113,7 +1116,7 @@
       <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>44941</v>
       </c>
     </row>
@@ -1127,7 +1130,7 @@
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="4">
         <v>44942</v>
       </c>
     </row>
@@ -1141,7 +1144,7 @@
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="4">
         <v>44943</v>
       </c>
     </row>
@@ -1155,7 +1158,7 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="4">
         <v>44944</v>
       </c>
     </row>
@@ -1163,13 +1166,13 @@
       <c r="A51" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="4">
         <v>44945</v>
       </c>
     </row>
@@ -1177,13 +1180,13 @@
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>44946</v>
       </c>
     </row>
@@ -1191,13 +1194,13 @@
       <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="4">
         <v>44947</v>
       </c>
     </row>
@@ -1205,13 +1208,13 @@
       <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="4">
         <v>44948</v>
       </c>
     </row>
@@ -1219,13 +1222,13 @@
       <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="4">
         <v>44949</v>
       </c>
     </row>
@@ -1233,13 +1236,13 @@
       <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="4">
         <v>44950</v>
       </c>
     </row>
@@ -1247,13 +1250,13 @@
       <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="4">
         <v>44951</v>
       </c>
     </row>
@@ -1261,13 +1264,13 @@
       <c r="A58" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="4">
         <v>44952</v>
       </c>
     </row>
@@ -1275,13 +1278,13 @@
       <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="4">
         <v>44953</v>
       </c>
     </row>
@@ -1289,13 +1292,13 @@
       <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="4">
         <v>44954</v>
       </c>
     </row>
@@ -1303,13 +1306,13 @@
       <c r="A61" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="4">
         <v>44955</v>
       </c>
     </row>
@@ -1317,13 +1320,13 @@
       <c r="A62" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="4">
         <v>44956</v>
       </c>
     </row>
@@ -1331,13 +1334,13 @@
       <c r="A63" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="4">
         <v>44957</v>
       </c>
     </row>
@@ -1345,13 +1348,13 @@
       <c r="A64" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="4">
         <v>44958</v>
       </c>
     </row>
@@ -1359,13 +1362,13 @@
       <c r="A65" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="4">
         <v>44959</v>
       </c>
     </row>
@@ -1373,13 +1376,13 @@
       <c r="A66" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="4">
         <v>44960</v>
       </c>
     </row>
@@ -1387,13 +1390,13 @@
       <c r="A67" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="4">
         <v>44961</v>
       </c>
     </row>
@@ -1401,13 +1404,13 @@
       <c r="A68" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="4">
         <v>44962</v>
       </c>
     </row>
@@ -1421,7 +1424,7 @@
       <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="4">
         <v>44963</v>
       </c>
     </row>
@@ -1435,7 +1438,7 @@
       <c r="C70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="4">
         <v>44964</v>
       </c>
     </row>
@@ -1449,7 +1452,7 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="4">
         <v>44965</v>
       </c>
     </row>
@@ -1463,7 +1466,7 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="4">
         <v>44966</v>
       </c>
     </row>
@@ -1477,7 +1480,7 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="4">
         <v>44967</v>
       </c>
     </row>
@@ -1491,7 +1494,7 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="4">
         <v>44968</v>
       </c>
     </row>
@@ -1505,7 +1508,7 @@
       <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="4">
         <v>44969</v>
       </c>
     </row>
@@ -1519,7 +1522,7 @@
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="4">
         <v>44970</v>
       </c>
     </row>
@@ -1533,7 +1536,7 @@
       <c r="C77" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="4">
         <v>44971</v>
       </c>
     </row>
@@ -1547,7 +1550,7 @@
       <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="4">
         <v>44972</v>
       </c>
     </row>
@@ -1561,7 +1564,7 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="4">
         <v>44973</v>
       </c>
     </row>
@@ -1575,7 +1578,7 @@
       <c r="C80" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="4">
         <v>44974</v>
       </c>
     </row>
@@ -1589,7 +1592,7 @@
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="4">
         <v>44975</v>
       </c>
     </row>
@@ -1603,7 +1606,7 @@
       <c r="C82" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="4">
         <v>44976</v>
       </c>
     </row>
@@ -1611,13 +1614,13 @@
       <c r="A83" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="4">
         <v>44977</v>
       </c>
     </row>
@@ -1625,13 +1628,13 @@
       <c r="A84" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="4">
         <v>44978</v>
       </c>
     </row>
@@ -1639,13 +1642,13 @@
       <c r="A85" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="4">
         <v>44979</v>
       </c>
     </row>
@@ -1653,13 +1656,13 @@
       <c r="A86" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="4">
         <v>44980</v>
       </c>
     </row>
@@ -1667,13 +1670,13 @@
       <c r="A87" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="4">
         <v>44981</v>
       </c>
     </row>
@@ -1681,13 +1684,13 @@
       <c r="A88" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="4">
         <v>44982</v>
       </c>
     </row>
@@ -1695,13 +1698,13 @@
       <c r="A89" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="4">
         <v>44983</v>
       </c>
     </row>
@@ -1709,13 +1712,13 @@
       <c r="A90" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="4">
         <v>44984</v>
       </c>
     </row>
@@ -1723,13 +1726,13 @@
       <c r="A91" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="4">
         <v>44985</v>
       </c>
     </row>
@@ -1737,13 +1740,13 @@
       <c r="A92" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="4">
         <v>44986</v>
       </c>
     </row>
@@ -1751,13 +1754,13 @@
       <c r="A93" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="4">
         <v>44987</v>
       </c>
     </row>
@@ -1765,13 +1768,13 @@
       <c r="A94" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="4">
         <v>44988</v>
       </c>
     </row>
@@ -1779,13 +1782,13 @@
       <c r="A95" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="4">
         <v>44989</v>
       </c>
     </row>
@@ -1793,13 +1796,13 @@
       <c r="A96" t="s">
         <v>17</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="4">
         <v>44990</v>
       </c>
     </row>
@@ -1813,7 +1816,7 @@
       <c r="C97" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="4">
         <v>44991</v>
       </c>
     </row>
@@ -1827,7 +1830,7 @@
       <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="4">
         <v>44992</v>
       </c>
     </row>
@@ -1841,7 +1844,7 @@
       <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="4">
         <v>44993</v>
       </c>
     </row>
@@ -1855,7 +1858,7 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="4">
         <v>44994</v>
       </c>
     </row>
@@ -1869,7 +1872,7 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="4">
         <v>44995</v>
       </c>
     </row>
@@ -1883,7 +1886,7 @@
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="4">
         <v>44996</v>
       </c>
     </row>
@@ -1897,21 +1900,21 @@
       <c r="C103" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="4">
         <v>44997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <v>44998</v>
       </c>
     </row>
@@ -1925,7 +1928,7 @@
       <c r="C105" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="4">
         <v>44999</v>
       </c>
     </row>
@@ -1939,7 +1942,7 @@
       <c r="C106" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="4">
         <v>45000</v>
       </c>
     </row>
@@ -1947,13 +1950,13 @@
       <c r="A107" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="4">
         <v>45001</v>
       </c>
     </row>
@@ -1961,13 +1964,13 @@
       <c r="A108" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="4">
         <v>45002</v>
       </c>
     </row>
@@ -1975,13 +1978,13 @@
       <c r="A109" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="4">
         <v>45003</v>
       </c>
     </row>
@@ -1989,13 +1992,13 @@
       <c r="A110" t="s">
         <v>18</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="4">
         <v>45004</v>
       </c>
     </row>
@@ -2003,13 +2006,13 @@
       <c r="A111" t="s">
         <v>18</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="4">
         <v>45005</v>
       </c>
     </row>
@@ -2017,13 +2020,13 @@
       <c r="A112" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="4">
         <v>45006</v>
       </c>
     </row>
@@ -2031,13 +2034,13 @@
       <c r="A113" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="4">
         <v>45007</v>
       </c>
     </row>
@@ -2045,13 +2048,13 @@
       <c r="A114" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="4">
         <v>45008</v>
       </c>
     </row>
@@ -2059,13 +2062,13 @@
       <c r="A115" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="4">
         <v>45009</v>
       </c>
     </row>
@@ -2073,13 +2076,13 @@
       <c r="A116" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="4">
         <v>45010</v>
       </c>
     </row>
@@ -2087,13 +2090,13 @@
       <c r="A117" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="4">
         <v>45011</v>
       </c>
     </row>
@@ -2101,13 +2104,13 @@
       <c r="A118" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="4">
         <v>45012</v>
       </c>
     </row>
@@ -2115,13 +2118,13 @@
       <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="4">
         <v>45013</v>
       </c>
     </row>
@@ -2129,13 +2132,13 @@
       <c r="A120" t="s">
         <v>18</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="4">
         <v>45014</v>
       </c>
     </row>
@@ -2143,13 +2146,13 @@
       <c r="A121" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="4">
         <v>45015</v>
       </c>
     </row>
@@ -2157,13 +2160,13 @@
       <c r="A122" t="s">
         <v>18</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="4">
         <v>45016</v>
       </c>
     </row>
@@ -2171,13 +2174,13 @@
       <c r="A123" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="4">
         <v>45017</v>
       </c>
     </row>
@@ -2185,13 +2188,13 @@
       <c r="A124" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="4">
         <v>45018</v>
       </c>
     </row>
@@ -2205,7 +2208,7 @@
       <c r="C125" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="4">
         <v>45019</v>
       </c>
     </row>
@@ -2219,7 +2222,7 @@
       <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="4">
         <v>45020</v>
       </c>
     </row>
@@ -2233,7 +2236,7 @@
       <c r="C127" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="4">
         <v>45021</v>
       </c>
     </row>
@@ -2247,7 +2250,7 @@
       <c r="C128" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="4">
         <v>45022</v>
       </c>
     </row>
@@ -2261,7 +2264,7 @@
       <c r="C129" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="4">
         <v>45023</v>
       </c>
     </row>
@@ -2275,7 +2278,7 @@
       <c r="C130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="4">
         <v>45024</v>
       </c>
     </row>
@@ -2289,21 +2292,21 @@
       <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="4">
         <v>45025</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="5">
         <v>45026</v>
       </c>
     </row>
@@ -2311,13 +2314,13 @@
       <c r="A133" t="s">
         <v>19</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="4">
         <v>45027</v>
       </c>
     </row>
@@ -2325,13 +2328,13 @@
       <c r="A134" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="4">
         <v>45028</v>
       </c>
     </row>
@@ -2339,13 +2342,13 @@
       <c r="A135" t="s">
         <v>19</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="4">
         <v>45029</v>
       </c>
     </row>
@@ -2353,13 +2356,13 @@
       <c r="A136" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="4">
         <v>45030</v>
       </c>
     </row>
@@ -2367,13 +2370,13 @@
       <c r="A137" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="4">
         <v>45031</v>
       </c>
     </row>
@@ -2381,13 +2384,13 @@
       <c r="A138" t="s">
         <v>19</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="4">
         <v>45032</v>
       </c>
     </row>
@@ -2395,13 +2398,13 @@
       <c r="A139" t="s">
         <v>19</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="4">
         <v>45033</v>
       </c>
     </row>
@@ -2409,13 +2412,13 @@
       <c r="A140" t="s">
         <v>19</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="4">
         <v>45034</v>
       </c>
     </row>
@@ -2423,13 +2426,13 @@
       <c r="A141" t="s">
         <v>19</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="4">
         <v>45035</v>
       </c>
     </row>
@@ -2437,13 +2440,13 @@
       <c r="A142" t="s">
         <v>19</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="4">
         <v>45036</v>
       </c>
     </row>
@@ -2451,13 +2454,13 @@
       <c r="A143" t="s">
         <v>19</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="4">
         <v>45037</v>
       </c>
     </row>
@@ -2465,13 +2468,13 @@
       <c r="A144" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="4">
         <v>45038</v>
       </c>
     </row>
@@ -2479,13 +2482,13 @@
       <c r="A145" t="s">
         <v>19</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="4">
         <v>45039</v>
       </c>
     </row>
@@ -2493,13 +2496,13 @@
       <c r="A146" t="s">
         <v>19</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="4">
         <v>45040</v>
       </c>
     </row>
@@ -2507,13 +2510,13 @@
       <c r="A147" t="s">
         <v>19</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="4">
         <v>45041</v>
       </c>
     </row>
@@ -2521,13 +2524,13 @@
       <c r="A148" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="4">
         <v>45042</v>
       </c>
     </row>
@@ -2535,13 +2538,13 @@
       <c r="A149" t="s">
         <v>19</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="4">
         <v>45043</v>
       </c>
     </row>
@@ -2549,13 +2552,13 @@
       <c r="A150" t="s">
         <v>19</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="4">
         <v>45044</v>
       </c>
     </row>
@@ -2563,13 +2566,13 @@
       <c r="A151" t="s">
         <v>19</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="4">
         <v>45045</v>
       </c>
     </row>
@@ -2583,7 +2586,7 @@
       <c r="C152" t="s">
         <v>10</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="4">
         <v>45046</v>
       </c>
     </row>
@@ -2597,7 +2600,7 @@
       <c r="C153" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="4">
         <v>45047</v>
       </c>
     </row>
@@ -2611,7 +2614,7 @@
       <c r="C154" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="4">
         <v>45048</v>
       </c>
     </row>
@@ -2625,7 +2628,7 @@
       <c r="C155" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -2639,7 +2642,7 @@
       <c r="C156" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="4">
         <v>45050</v>
       </c>
     </row>
@@ -2653,7 +2656,7 @@
       <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="4">
         <v>45051</v>
       </c>
     </row>
@@ -2667,7 +2670,7 @@
       <c r="C158" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="4">
         <v>45052</v>
       </c>
     </row>
@@ -2681,7 +2684,7 @@
       <c r="C159" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="4">
         <v>45053</v>
       </c>
     </row>
@@ -2695,7 +2698,7 @@
       <c r="C160" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="4">
         <v>45054</v>
       </c>
     </row>
@@ -2709,7 +2712,7 @@
       <c r="C161" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="4">
         <v>45055</v>
       </c>
     </row>
@@ -2723,7 +2726,7 @@
       <c r="C162" t="s">
         <v>13</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="4">
         <v>45056</v>
       </c>
     </row>
@@ -2737,7 +2740,7 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="4">
         <v>45057</v>
       </c>
     </row>
@@ -2751,7 +2754,7 @@
       <c r="C164" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="4">
         <v>45058</v>
       </c>
     </row>
@@ -2765,7 +2768,7 @@
       <c r="C165" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="4">
         <v>45059</v>
       </c>
     </row>
@@ -2773,13 +2776,13 @@
       <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="4">
         <v>45060</v>
       </c>
     </row>
@@ -2787,13 +2790,13 @@
       <c r="A167" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="4">
         <v>45061</v>
       </c>
     </row>
@@ -2801,13 +2804,13 @@
       <c r="A168" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="4">
         <v>45062</v>
       </c>
     </row>
@@ -2815,13 +2818,13 @@
       <c r="A169" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="4">
         <v>45063</v>
       </c>
     </row>
@@ -2829,13 +2832,13 @@
       <c r="A170" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="4">
         <v>45064</v>
       </c>
     </row>
@@ -2843,13 +2846,13 @@
       <c r="A171" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="4">
         <v>45065</v>
       </c>
     </row>
@@ -2857,13 +2860,13 @@
       <c r="A172" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="4">
         <v>45066</v>
       </c>
     </row>
@@ -2871,13 +2874,13 @@
       <c r="A173" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="4">
         <v>45067</v>
       </c>
     </row>
@@ -2885,13 +2888,13 @@
       <c r="A174" t="s">
         <v>20</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="4">
         <v>45068</v>
       </c>
     </row>
@@ -2899,13 +2902,13 @@
       <c r="A175" t="s">
         <v>20</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="4">
         <v>45069</v>
       </c>
     </row>
@@ -2913,13 +2916,13 @@
       <c r="A176" t="s">
         <v>20</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="4">
         <v>45070</v>
       </c>
     </row>
@@ -2927,13 +2930,13 @@
       <c r="A177" t="s">
         <v>20</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="4">
         <v>45071</v>
       </c>
     </row>
@@ -2941,13 +2944,13 @@
       <c r="A178" t="s">
         <v>20</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="4">
         <v>45072</v>
       </c>
     </row>
@@ -2955,13 +2958,13 @@
       <c r="A179" t="s">
         <v>20</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="4">
         <v>45073</v>
       </c>
     </row>
@@ -2975,7 +2978,7 @@
       <c r="C180" t="s">
         <v>10</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="4">
         <v>45074</v>
       </c>
     </row>
@@ -2989,7 +2992,7 @@
       <c r="C181" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="4">
         <v>45075</v>
       </c>
     </row>
@@ -3003,7 +3006,7 @@
       <c r="C182" t="s">
         <v>12</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="4">
         <v>45076</v>
       </c>
     </row>
@@ -3017,7 +3020,7 @@
       <c r="C183" t="s">
         <v>13</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="4">
         <v>45077</v>
       </c>
     </row>
@@ -3031,7 +3034,7 @@
       <c r="C184" t="s">
         <v>6</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="4">
         <v>45078</v>
       </c>
     </row>
@@ -3045,7 +3048,7 @@
       <c r="C185" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="4">
         <v>45079</v>
       </c>
     </row>
@@ -3059,7 +3062,7 @@
       <c r="C186" t="s">
         <v>9</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="4">
         <v>45080</v>
       </c>
     </row>
@@ -3073,7 +3076,7 @@
       <c r="C187" t="s">
         <v>10</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="4">
         <v>45081</v>
       </c>
     </row>
@@ -3087,7 +3090,7 @@
       <c r="C188" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="4">
         <v>45082</v>
       </c>
     </row>
@@ -3101,7 +3104,7 @@
       <c r="C189" t="s">
         <v>12</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="4">
         <v>45083</v>
       </c>
     </row>
@@ -3115,7 +3118,7 @@
       <c r="C190" t="s">
         <v>13</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="4">
         <v>45084</v>
       </c>
     </row>
@@ -3129,7 +3132,7 @@
       <c r="C191" t="s">
         <v>6</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="4">
         <v>45085</v>
       </c>
     </row>
@@ -3143,7 +3146,7 @@
       <c r="C192" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="4">
         <v>45086</v>
       </c>
     </row>
@@ -3157,21 +3160,21 @@
       <c r="C193" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="4">
         <v>45087</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="3" t="s">
+      <c r="B194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="5">
         <v>45088</v>
       </c>
     </row>
@@ -3179,13 +3182,13 @@
       <c r="A195" t="s">
         <v>21</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="4">
         <v>45089</v>
       </c>
     </row>
@@ -3193,13 +3196,13 @@
       <c r="A196" t="s">
         <v>21</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="4">
         <v>45090</v>
       </c>
     </row>
@@ -3207,13 +3210,13 @@
       <c r="A197" t="s">
         <v>21</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="4">
         <v>45091</v>
       </c>
     </row>
@@ -3221,13 +3224,13 @@
       <c r="A198" t="s">
         <v>21</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="4">
         <v>45092</v>
       </c>
     </row>
@@ -3235,13 +3238,13 @@
       <c r="A199" t="s">
         <v>21</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="4">
         <v>45093</v>
       </c>
     </row>
@@ -3249,13 +3252,13 @@
       <c r="A200" t="s">
         <v>21</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="4">
         <v>45094</v>
       </c>
     </row>
@@ -3263,13 +3266,13 @@
       <c r="A201" t="s">
         <v>21</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>10</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="4">
         <v>45095</v>
       </c>
     </row>
@@ -3277,13 +3280,13 @@
       <c r="A202" t="s">
         <v>21</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="4">
         <v>45096</v>
       </c>
     </row>
@@ -3291,13 +3294,13 @@
       <c r="A203" t="s">
         <v>21</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="4">
         <v>45097</v>
       </c>
     </row>
@@ -3305,13 +3308,13 @@
       <c r="A204" t="s">
         <v>21</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="4">
         <v>45098</v>
       </c>
     </row>
@@ -3319,13 +3322,13 @@
       <c r="A205" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="4">
         <v>45099</v>
       </c>
     </row>
@@ -3333,13 +3336,13 @@
       <c r="A206" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="4">
         <v>45100</v>
       </c>
     </row>
@@ -3347,13 +3350,13 @@
       <c r="A207" t="s">
         <v>21</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="4">
         <v>45101</v>
       </c>
     </row>
@@ -3361,13 +3364,13 @@
       <c r="A208" t="s">
         <v>21</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>10</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="4">
         <v>45102</v>
       </c>
     </row>
@@ -3381,7 +3384,7 @@
       <c r="C209" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="4">
         <v>45103</v>
       </c>
     </row>
@@ -3395,7 +3398,7 @@
       <c r="C210" t="s">
         <v>12</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="4">
         <v>45104</v>
       </c>
     </row>
@@ -3409,7 +3412,7 @@
       <c r="C211" t="s">
         <v>13</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="4">
         <v>45105</v>
       </c>
     </row>
@@ -3423,7 +3426,7 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="4">
         <v>45106</v>
       </c>
     </row>
@@ -3437,7 +3440,7 @@
       <c r="C213" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="4">
         <v>45107</v>
       </c>
     </row>
@@ -3451,7 +3454,7 @@
       <c r="C214" t="s">
         <v>9</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="4">
         <v>45108</v>
       </c>
     </row>
@@ -3465,7 +3468,7 @@
       <c r="C215" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="4">
         <v>45109</v>
       </c>
     </row>
@@ -3479,7 +3482,7 @@
       <c r="C216" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="4">
         <v>45110</v>
       </c>
     </row>
@@ -3493,7 +3496,7 @@
       <c r="C217" t="s">
         <v>12</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="4">
         <v>45111</v>
       </c>
     </row>
@@ -3507,7 +3510,7 @@
       <c r="C218" t="s">
         <v>13</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="4">
         <v>45112</v>
       </c>
     </row>
@@ -3521,7 +3524,7 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="4">
         <v>45113</v>
       </c>
     </row>
@@ -3535,7 +3538,7 @@
       <c r="C220" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="4">
         <v>45114</v>
       </c>
     </row>
@@ -3549,7 +3552,7 @@
       <c r="C221" t="s">
         <v>9</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="4">
         <v>45115</v>
       </c>
     </row>
@@ -3563,7 +3566,7 @@
       <c r="C222" t="s">
         <v>10</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="4">
         <v>45116</v>
       </c>
     </row>
@@ -3571,13 +3574,13 @@
       <c r="A223" t="s">
         <v>22</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="4">
         <v>45117</v>
       </c>
     </row>
@@ -3585,13 +3588,13 @@
       <c r="A224" t="s">
         <v>22</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="4">
         <v>45118</v>
       </c>
     </row>
@@ -3599,13 +3602,13 @@
       <c r="A225" t="s">
         <v>22</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="4">
         <v>45119</v>
       </c>
     </row>
@@ -3613,13 +3616,13 @@
       <c r="A226" t="s">
         <v>22</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="4">
         <v>45120</v>
       </c>
     </row>
@@ -3627,13 +3630,13 @@
       <c r="A227" t="s">
         <v>22</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="4">
         <v>45121</v>
       </c>
     </row>
@@ -3641,13 +3644,13 @@
       <c r="A228" t="s">
         <v>22</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="4">
         <v>45122</v>
       </c>
     </row>
@@ -3655,13 +3658,13 @@
       <c r="A229" t="s">
         <v>22</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>10</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="4">
         <v>45123</v>
       </c>
     </row>
@@ -3669,13 +3672,13 @@
       <c r="A230" t="s">
         <v>22</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="4">
         <v>45124</v>
       </c>
     </row>
@@ -3683,13 +3686,13 @@
       <c r="A231" t="s">
         <v>22</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="4">
         <v>45125</v>
       </c>
     </row>
@@ -3697,13 +3700,13 @@
       <c r="A232" t="s">
         <v>22</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="4">
         <v>45126</v>
       </c>
     </row>
@@ -3711,13 +3714,13 @@
       <c r="A233" t="s">
         <v>22</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="4">
         <v>45127</v>
       </c>
     </row>
@@ -3725,13 +3728,13 @@
       <c r="A234" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="4">
         <v>45128</v>
       </c>
     </row>
@@ -3739,13 +3742,13 @@
       <c r="A235" t="s">
         <v>22</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="4">
         <v>45129</v>
       </c>
     </row>
@@ -3753,27 +3756,27 @@
       <c r="A236" t="s">
         <v>22</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="4">
         <v>45130</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" s="3" t="s">
+      <c r="B237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="5">
         <v>45131</v>
       </c>
     </row>
@@ -3787,7 +3790,7 @@
       <c r="C238" t="s">
         <v>12</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="4">
         <v>45132</v>
       </c>
     </row>
@@ -3801,7 +3804,7 @@
       <c r="C239" t="s">
         <v>13</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="4">
         <v>45133</v>
       </c>
     </row>
@@ -3815,7 +3818,7 @@
       <c r="C240" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="4">
         <v>45134</v>
       </c>
     </row>
@@ -3829,7 +3832,7 @@
       <c r="C241" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="4">
         <v>45135</v>
       </c>
     </row>
@@ -3843,7 +3846,7 @@
       <c r="C242" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="4">
         <v>45136</v>
       </c>
     </row>
@@ -3857,7 +3860,7 @@
       <c r="C243" t="s">
         <v>10</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="4">
         <v>45137</v>
       </c>
     </row>
@@ -3871,7 +3874,7 @@
       <c r="C244" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -3885,7 +3888,7 @@
       <c r="C245" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="4">
         <v>45139</v>
       </c>
     </row>
@@ -3899,7 +3902,7 @@
       <c r="C246" t="s">
         <v>13</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="4">
         <v>45140</v>
       </c>
     </row>
@@ -3913,7 +3916,7 @@
       <c r="C247" t="s">
         <v>6</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="4">
         <v>45141</v>
       </c>
     </row>
@@ -3927,7 +3930,7 @@
       <c r="C248" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="4">
         <v>45142</v>
       </c>
     </row>
@@ -3941,7 +3944,7 @@
       <c r="C249" t="s">
         <v>9</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="4">
         <v>45143</v>
       </c>
     </row>
@@ -3955,7 +3958,7 @@
       <c r="C250" t="s">
         <v>10</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="4">
         <v>45144</v>
       </c>
     </row>
@@ -3963,13 +3966,13 @@
       <c r="A251" t="s">
         <v>23</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="4">
         <v>45145</v>
       </c>
     </row>
@@ -3977,13 +3980,13 @@
       <c r="A252" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>12</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="4">
         <v>45146</v>
       </c>
     </row>
@@ -3991,13 +3994,13 @@
       <c r="A253" t="s">
         <v>23</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="4">
         <v>45147</v>
       </c>
     </row>
@@ -4005,13 +4008,13 @@
       <c r="A254" t="s">
         <v>23</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="4">
         <v>45148</v>
       </c>
     </row>
@@ -4019,13 +4022,13 @@
       <c r="A255" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="4">
         <v>45149</v>
       </c>
     </row>
@@ -4033,13 +4036,13 @@
       <c r="A256" t="s">
         <v>23</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="4">
         <v>45150</v>
       </c>
     </row>
@@ -4047,13 +4050,13 @@
       <c r="A257" t="s">
         <v>23</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="4">
         <v>45151</v>
       </c>
     </row>
@@ -4061,13 +4064,13 @@
       <c r="A258" t="s">
         <v>23</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="4">
         <v>45152</v>
       </c>
     </row>
@@ -4075,13 +4078,13 @@
       <c r="A259" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C259" t="s">
         <v>12</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="4">
         <v>45153</v>
       </c>
     </row>
@@ -4089,13 +4092,13 @@
       <c r="A260" t="s">
         <v>23</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="4">
         <v>45154</v>
       </c>
     </row>
@@ -4103,13 +4106,13 @@
       <c r="A261" t="s">
         <v>23</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="4">
         <v>45155</v>
       </c>
     </row>
@@ -4117,27 +4120,27 @@
       <c r="A262" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="4">
         <v>45156</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="3" t="s">
+      <c r="B263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="5">
         <v>45157</v>
       </c>
     </row>
@@ -4151,7 +4154,7 @@
       <c r="C264" t="s">
         <v>10</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="4">
         <v>45158</v>
       </c>
     </row>
@@ -4165,7 +4168,7 @@
       <c r="C265" t="s">
         <v>11</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="4">
         <v>45159</v>
       </c>
     </row>
@@ -4179,7 +4182,7 @@
       <c r="C266" t="s">
         <v>12</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="4">
         <v>45160</v>
       </c>
     </row>
@@ -4193,7 +4196,7 @@
       <c r="C267" t="s">
         <v>13</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="4">
         <v>45161</v>
       </c>
     </row>
@@ -4207,7 +4210,7 @@
       <c r="C268" t="s">
         <v>6</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="4">
         <v>45162</v>
       </c>
     </row>
@@ -4221,7 +4224,7 @@
       <c r="C269" t="s">
         <v>7</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="4">
         <v>45163</v>
       </c>
     </row>
@@ -4235,7 +4238,7 @@
       <c r="C270" t="s">
         <v>9</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="4">
         <v>45164</v>
       </c>
     </row>
@@ -4249,7 +4252,7 @@
       <c r="C271" t="s">
         <v>10</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="4">
         <v>45165</v>
       </c>
     </row>
@@ -4263,7 +4266,7 @@
       <c r="C272" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="4">
         <v>45166</v>
       </c>
     </row>
@@ -4277,7 +4280,7 @@
       <c r="C273" t="s">
         <v>12</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="4">
         <v>45167</v>
       </c>
     </row>
@@ -4291,7 +4294,7 @@
       <c r="C274" t="s">
         <v>13</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="4">
         <v>45168</v>
       </c>
     </row>
@@ -4299,13 +4302,13 @@
       <c r="A275" t="s">
         <v>24</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="4">
         <v>45169</v>
       </c>
     </row>
@@ -4313,13 +4316,13 @@
       <c r="A276" t="s">
         <v>24</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="4">
         <v>45170</v>
       </c>
     </row>
@@ -4327,13 +4330,13 @@
       <c r="A277" t="s">
         <v>24</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="4">
         <v>45171</v>
       </c>
     </row>
@@ -4341,13 +4344,13 @@
       <c r="A278" t="s">
         <v>24</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="s">
         <v>10</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="4">
         <v>45172</v>
       </c>
     </row>
@@ -4355,13 +4358,13 @@
       <c r="A279" t="s">
         <v>24</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C279" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="4">
         <v>45173</v>
       </c>
     </row>
@@ -4369,13 +4372,13 @@
       <c r="A280" t="s">
         <v>24</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="4">
         <v>45174</v>
       </c>
     </row>
@@ -4383,13 +4386,13 @@
       <c r="A281" t="s">
         <v>24</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="4">
         <v>45175</v>
       </c>
     </row>
@@ -4397,13 +4400,13 @@
       <c r="A282" t="s">
         <v>24</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="4">
         <v>45176</v>
       </c>
     </row>
@@ -4411,13 +4414,13 @@
       <c r="A283" t="s">
         <v>24</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="4">
         <v>45177</v>
       </c>
     </row>
@@ -4425,13 +4428,13 @@
       <c r="A284" t="s">
         <v>24</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C284" t="s">
         <v>9</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="4">
         <v>45178</v>
       </c>
     </row>
@@ -4439,13 +4442,13 @@
       <c r="A285" t="s">
         <v>24</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C285" t="s">
         <v>10</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="4">
         <v>45179</v>
       </c>
     </row>
@@ -4453,13 +4456,13 @@
       <c r="A286" t="s">
         <v>24</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C286" t="s">
         <v>11</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="4">
         <v>45180</v>
       </c>
     </row>
@@ -4467,13 +4470,13 @@
       <c r="A287" t="s">
         <v>24</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C287" t="s">
         <v>12</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="4">
         <v>45181</v>
       </c>
     </row>
@@ -4481,13 +4484,13 @@
       <c r="A288" t="s">
         <v>24</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C288" t="s">
         <v>13</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="4">
         <v>45182</v>
       </c>
     </row>
@@ -4501,7 +4504,7 @@
       <c r="C289" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="4">
         <v>45183</v>
       </c>
     </row>
@@ -4515,7 +4518,7 @@
       <c r="C290" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="4">
         <v>45184</v>
       </c>
     </row>
@@ -4529,7 +4532,7 @@
       <c r="C291" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="4">
         <v>45185</v>
       </c>
     </row>
@@ -4543,7 +4546,7 @@
       <c r="C292" t="s">
         <v>10</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="4">
         <v>45186</v>
       </c>
     </row>
@@ -4557,7 +4560,7 @@
       <c r="C293" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="4">
         <v>45187</v>
       </c>
     </row>
@@ -4571,7 +4574,7 @@
       <c r="C294" t="s">
         <v>12</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="4">
         <v>45188</v>
       </c>
     </row>
@@ -4585,7 +4588,7 @@
       <c r="C295" t="s">
         <v>13</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="4">
         <v>45189</v>
       </c>
     </row>
@@ -4599,7 +4602,7 @@
       <c r="C296" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="4">
         <v>45190</v>
       </c>
     </row>
@@ -4613,7 +4616,7 @@
       <c r="C297" t="s">
         <v>7</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="4">
         <v>45191</v>
       </c>
     </row>
@@ -4627,7 +4630,7 @@
       <c r="C298" t="s">
         <v>9</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="4">
         <v>45192</v>
       </c>
     </row>
@@ -4641,7 +4644,7 @@
       <c r="C299" t="s">
         <v>10</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="4">
         <v>45193</v>
       </c>
     </row>
@@ -4655,7 +4658,7 @@
       <c r="C300" t="s">
         <v>11</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="4">
         <v>45194</v>
       </c>
     </row>
@@ -4669,7 +4672,7 @@
       <c r="C301" t="s">
         <v>12</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="4">
         <v>45195</v>
       </c>
     </row>
@@ -4683,7 +4686,7 @@
       <c r="C302" t="s">
         <v>13</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="4">
         <v>45196</v>
       </c>
     </row>
@@ -4691,13 +4694,13 @@
       <c r="A303" t="s">
         <v>24</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="4">
         <v>45197</v>
       </c>
     </row>
@@ -4705,13 +4708,13 @@
       <c r="A304" t="s">
         <v>24</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="4">
         <v>45198</v>
       </c>
     </row>
@@ -4719,13 +4722,13 @@
       <c r="A305" t="s">
         <v>24</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C305" t="s">
         <v>9</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="4">
         <v>45199</v>
       </c>
     </row>
@@ -4733,13 +4736,13 @@
       <c r="A306" t="s">
         <v>25</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C306" t="s">
         <v>10</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="4">
         <v>45200</v>
       </c>
     </row>
@@ -4747,13 +4750,13 @@
       <c r="A307" t="s">
         <v>25</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C307" t="s">
         <v>11</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="4">
         <v>45201</v>
       </c>
     </row>
@@ -4761,13 +4764,13 @@
       <c r="A308" t="s">
         <v>25</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C308" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="4">
         <v>45202</v>
       </c>
     </row>
@@ -4775,13 +4778,13 @@
       <c r="A309" t="s">
         <v>25</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="4">
         <v>45203</v>
       </c>
     </row>
@@ -4789,13 +4792,13 @@
       <c r="A310" t="s">
         <v>25</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="4">
         <v>45204</v>
       </c>
     </row>
@@ -4803,13 +4806,13 @@
       <c r="A311" t="s">
         <v>25</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="4">
         <v>45205</v>
       </c>
     </row>
@@ -4817,13 +4820,13 @@
       <c r="A312" t="s">
         <v>25</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="4">
         <v>45206</v>
       </c>
     </row>
@@ -4831,13 +4834,13 @@
       <c r="A313" t="s">
         <v>25</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C313" t="s">
         <v>10</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="4">
         <v>45207</v>
       </c>
     </row>
@@ -4845,13 +4848,13 @@
       <c r="A314" t="s">
         <v>25</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C314" t="s">
         <v>11</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="4">
         <v>45208</v>
       </c>
     </row>
@@ -4859,13 +4862,13 @@
       <c r="A315" t="s">
         <v>25</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C315" t="s">
         <v>12</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="4">
         <v>45209</v>
       </c>
     </row>
@@ -4873,13 +4876,13 @@
       <c r="A316" t="s">
         <v>25</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C316" t="s">
         <v>13</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="4">
         <v>45210</v>
       </c>
     </row>
@@ -4893,7 +4896,7 @@
       <c r="C317" t="s">
         <v>6</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="4">
         <v>45211</v>
       </c>
     </row>
@@ -4907,7 +4910,7 @@
       <c r="C318" t="s">
         <v>7</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="4">
         <v>45212</v>
       </c>
     </row>
@@ -4921,7 +4924,7 @@
       <c r="C319" t="s">
         <v>9</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="4">
         <v>45213</v>
       </c>
     </row>
@@ -4935,7 +4938,7 @@
       <c r="C320" t="s">
         <v>10</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="4">
         <v>45214</v>
       </c>
     </row>
@@ -4949,7 +4952,7 @@
       <c r="C321" t="s">
         <v>11</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="4">
         <v>45215</v>
       </c>
     </row>
@@ -4963,7 +4966,7 @@
       <c r="C322" t="s">
         <v>12</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="4">
         <v>45216</v>
       </c>
     </row>
@@ -4977,7 +4980,7 @@
       <c r="C323" t="s">
         <v>13</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="4">
         <v>45217</v>
       </c>
     </row>
@@ -4991,7 +4994,7 @@
       <c r="C324" t="s">
         <v>6</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="4">
         <v>45218</v>
       </c>
     </row>
@@ -5005,7 +5008,7 @@
       <c r="C325" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="4">
         <v>45219</v>
       </c>
     </row>
@@ -5019,7 +5022,7 @@
       <c r="C326" t="s">
         <v>9</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="4">
         <v>45220</v>
       </c>
     </row>
@@ -5033,7 +5036,7 @@
       <c r="C327" t="s">
         <v>10</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="4">
         <v>45221</v>
       </c>
     </row>
@@ -5047,7 +5050,7 @@
       <c r="C328" t="s">
         <v>11</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="4">
         <v>45222</v>
       </c>
     </row>
@@ -5061,7 +5064,7 @@
       <c r="C329" t="s">
         <v>12</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="4">
         <v>45223</v>
       </c>
     </row>
@@ -5075,7 +5078,7 @@
       <c r="C330" t="s">
         <v>13</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="4">
         <v>45224</v>
       </c>
     </row>
@@ -5083,13 +5086,13 @@
       <c r="A331" t="s">
         <v>25</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="4">
         <v>45225</v>
       </c>
     </row>
@@ -5097,13 +5100,13 @@
       <c r="A332" t="s">
         <v>25</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="4">
         <v>45226</v>
       </c>
     </row>
@@ -5111,13 +5114,13 @@
       <c r="A333" t="s">
         <v>25</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C333" t="s">
         <v>9</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="4">
         <v>45227</v>
       </c>
     </row>
@@ -5125,13 +5128,13 @@
       <c r="A334" t="s">
         <v>25</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C334" t="s">
         <v>10</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="4">
         <v>45228</v>
       </c>
     </row>
@@ -5139,13 +5142,13 @@
       <c r="A335" t="s">
         <v>26</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C335" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="4">
         <v>45229</v>
       </c>
     </row>
@@ -5153,13 +5156,13 @@
       <c r="A336" t="s">
         <v>26</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C336" t="s">
         <v>12</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="4">
         <v>45230</v>
       </c>
     </row>
@@ -5167,13 +5170,13 @@
       <c r="A337" t="s">
         <v>26</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C337" t="s">
         <v>13</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="4">
         <v>45231</v>
       </c>
     </row>
@@ -5181,13 +5184,13 @@
       <c r="A338" t="s">
         <v>26</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="4">
         <v>45232</v>
       </c>
     </row>
@@ -5195,13 +5198,13 @@
       <c r="A339" t="s">
         <v>26</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="4">
         <v>45233</v>
       </c>
     </row>
@@ -5209,13 +5212,13 @@
       <c r="A340" t="s">
         <v>26</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C340" t="s">
         <v>9</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="4">
         <v>45234</v>
       </c>
     </row>
@@ -5223,13 +5226,13 @@
       <c r="A341" t="s">
         <v>26</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="4">
         <v>45235</v>
       </c>
     </row>
@@ -5237,13 +5240,13 @@
       <c r="A342" t="s">
         <v>26</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C342" t="s">
         <v>11</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="4">
         <v>45236</v>
       </c>
     </row>
@@ -5251,13 +5254,13 @@
       <c r="A343" t="s">
         <v>26</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C343" t="s">
         <v>12</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="4">
         <v>45237</v>
       </c>
     </row>
@@ -5265,13 +5268,13 @@
       <c r="A344" t="s">
         <v>26</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C344" t="s">
         <v>13</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="4">
         <v>45238</v>
       </c>
     </row>
@@ -5285,7 +5288,7 @@
       <c r="C345" t="s">
         <v>6</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="4">
         <v>45239</v>
       </c>
     </row>
@@ -5299,7 +5302,7 @@
       <c r="C346" t="s">
         <v>7</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="4">
         <v>45240</v>
       </c>
     </row>
@@ -5313,7 +5316,7 @@
       <c r="C347" t="s">
         <v>9</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="4">
         <v>45241</v>
       </c>
     </row>
@@ -5327,7 +5330,7 @@
       <c r="C348" t="s">
         <v>10</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="4">
         <v>45242</v>
       </c>
     </row>
@@ -5341,7 +5344,7 @@
       <c r="C349" t="s">
         <v>11</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="4">
         <v>45243</v>
       </c>
     </row>
@@ -5355,7 +5358,7 @@
       <c r="C350" t="s">
         <v>12</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="4">
         <v>45244</v>
       </c>
     </row>
@@ -5369,7 +5372,7 @@
       <c r="C351" t="s">
         <v>13</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="4">
         <v>45245</v>
       </c>
     </row>
@@ -5383,7 +5386,7 @@
       <c r="C352" t="s">
         <v>6</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="4">
         <v>45246</v>
       </c>
     </row>
@@ -5397,7 +5400,7 @@
       <c r="C353" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="4">
         <v>45247</v>
       </c>
     </row>
@@ -5411,7 +5414,7 @@
       <c r="C354" t="s">
         <v>9</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="4">
         <v>45248</v>
       </c>
     </row>
@@ -5425,7 +5428,7 @@
       <c r="C355" t="s">
         <v>10</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="4">
         <v>45249</v>
       </c>
     </row>
@@ -5439,7 +5442,7 @@
       <c r="C356" t="s">
         <v>11</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="4">
         <v>45250</v>
       </c>
     </row>
@@ -5453,7 +5456,7 @@
       <c r="C357" t="s">
         <v>12</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="4">
         <v>45251</v>
       </c>
     </row>
@@ -5467,7 +5470,7 @@
       <c r="C358" t="s">
         <v>13</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="4">
         <v>45252</v>
       </c>
     </row>
@@ -5475,13 +5478,13 @@
       <c r="A359" t="s">
         <v>26</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="4">
         <v>45253</v>
       </c>
     </row>
@@ -5489,13 +5492,13 @@
       <c r="A360" t="s">
         <v>26</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="4">
         <v>45254</v>
       </c>
     </row>
@@ -5503,13 +5506,13 @@
       <c r="A361" t="s">
         <v>26</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
       </c>
-      <c r="D361" s="1">
+      <c r="D361" s="4">
         <v>45255</v>
       </c>
     </row>
@@ -5517,13 +5520,13 @@
       <c r="A362" t="s">
         <v>26</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C362" t="s">
         <v>10</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362" s="4">
         <v>45256</v>
       </c>
     </row>
@@ -5531,13 +5534,13 @@
       <c r="A363" t="s">
         <v>4</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C363" t="s">
         <v>11</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363" s="4">
         <v>45257</v>
       </c>
     </row>
@@ -5545,13 +5548,13 @@
       <c r="A364" t="s">
         <v>4</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C364" t="s">
         <v>12</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="4">
         <v>45258</v>
       </c>
     </row>
@@ -5559,13 +5562,13 @@
       <c r="A365" t="s">
         <v>4</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C365" t="s">
         <v>13</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365" s="4">
         <v>45259</v>
       </c>
     </row>
@@ -5573,13 +5576,13 @@
       <c r="A366" t="s">
         <v>4</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="4">
         <v>45260</v>
       </c>
     </row>
@@ -5587,13 +5590,13 @@
       <c r="A367" t="s">
         <v>4</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="4">
         <v>45261</v>
       </c>
     </row>
@@ -5601,13 +5604,13 @@
       <c r="A368" t="s">
         <v>4</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C368" t="s">
         <v>9</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="4">
         <v>45262</v>
       </c>
     </row>
@@ -5615,13 +5618,13 @@
       <c r="A369" t="s">
         <v>4</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C369" t="s">
         <v>10</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="4">
         <v>45263</v>
       </c>
     </row>
@@ -5629,13 +5632,13 @@
       <c r="A370" t="s">
         <v>4</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C370" t="s">
         <v>11</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="4">
         <v>45264</v>
       </c>
     </row>
@@ -5643,13 +5646,13 @@
       <c r="A371" t="s">
         <v>4</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C371" t="s">
         <v>12</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="4">
         <v>45265</v>
       </c>
     </row>
@@ -5657,13 +5660,13 @@
       <c r="A372" t="s">
         <v>4</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C372" t="s">
         <v>13</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="4">
         <v>45266</v>
       </c>
     </row>
@@ -5671,13 +5674,13 @@
       <c r="A373" t="s">
         <v>4</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="4">
         <v>45267</v>
       </c>
     </row>
@@ -5685,13 +5688,13 @@
       <c r="A374" t="s">
         <v>4</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C374" t="s">
         <v>7</v>
       </c>
-      <c r="D374" s="1">
+      <c r="D374" s="4">
         <v>45268</v>
       </c>
     </row>
@@ -5699,13 +5702,13 @@
       <c r="A375" t="s">
         <v>4</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C375" t="s">
         <v>9</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="4">
         <v>45269</v>
       </c>
     </row>
@@ -5713,13 +5716,13 @@
       <c r="A376" t="s">
         <v>4</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C376" t="s">
         <v>10</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376" s="4">
         <v>45270</v>
       </c>
     </row>
@@ -5727,13 +5730,13 @@
       <c r="A377" t="s">
         <v>4</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C377" t="s">
         <v>11</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377" s="4">
         <v>45271</v>
       </c>
     </row>
@@ -5741,13 +5744,13 @@
       <c r="A378" t="s">
         <v>4</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C378" t="s">
         <v>12</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378" s="4">
         <v>45272</v>
       </c>
     </row>
@@ -5755,13 +5758,13 @@
       <c r="A379" t="s">
         <v>4</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C379" t="s">
         <v>13</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379" s="4">
         <v>45273</v>
       </c>
     </row>
@@ -5769,13 +5772,13 @@
       <c r="A380" t="s">
         <v>4</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380" s="4">
         <v>45274</v>
       </c>
     </row>
@@ -5783,13 +5786,13 @@
       <c r="A381" t="s">
         <v>4</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381" s="4">
         <v>45275</v>
       </c>
     </row>
@@ -5797,13 +5800,13 @@
       <c r="A382" t="s">
         <v>4</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C382" t="s">
         <v>9</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="4">
         <v>45276</v>
       </c>
     </row>
@@ -5811,13 +5814,13 @@
       <c r="A383" t="s">
         <v>4</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C383" t="s">
         <v>10</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="4">
         <v>45277</v>
       </c>
     </row>
@@ -5825,13 +5828,13 @@
       <c r="A384" t="s">
         <v>4</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C384" t="s">
         <v>11</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="4">
         <v>45278</v>
       </c>
     </row>
@@ -5839,13 +5842,13 @@
       <c r="A385" t="s">
         <v>4</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C385" t="s">
         <v>12</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="4">
         <v>45279</v>
       </c>
     </row>
@@ -5853,13 +5856,13 @@
       <c r="A386" t="s">
         <v>4</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C386" t="s">
         <v>13</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386" s="4">
         <v>45280</v>
       </c>
     </row>
@@ -5867,13 +5870,13 @@
       <c r="A387" t="s">
         <v>4</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387" s="4">
         <v>45281</v>
       </c>
     </row>
@@ -5881,13 +5884,13 @@
       <c r="A388" t="s">
         <v>4</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388" s="4">
         <v>45282</v>
       </c>
     </row>
@@ -5895,13 +5898,13 @@
       <c r="A389" t="s">
         <v>4</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389" s="4">
         <v>45283</v>
       </c>
     </row>
@@ -5909,13 +5912,13 @@
       <c r="A390" t="s">
         <v>4</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C390" t="s">
         <v>10</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390" s="4">
         <v>45284</v>
       </c>
     </row>
@@ -5923,13 +5926,13 @@
       <c r="A391" t="s">
         <v>4</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C391" t="s">
         <v>11</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391" s="4">
         <v>45285</v>
       </c>
     </row>
@@ -5937,13 +5940,13 @@
       <c r="A392" t="s">
         <v>4</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C392" t="s">
         <v>12</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392" s="4">
         <v>45286</v>
       </c>
     </row>
@@ -5951,13 +5954,13 @@
       <c r="A393" t="s">
         <v>4</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393" s="4">
         <v>45287</v>
       </c>
     </row>
@@ -5965,13 +5968,13 @@
       <c r="A394" t="s">
         <v>4</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
       </c>
-      <c r="D394" s="1">
+      <c r="D394" s="4">
         <v>45288</v>
       </c>
     </row>
@@ -5979,13 +5982,13 @@
       <c r="A395" t="s">
         <v>4</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395" s="4">
         <v>45289</v>
       </c>
     </row>
@@ -5993,13 +5996,13 @@
       <c r="A396" t="s">
         <v>4</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C396" t="s">
         <v>9</v>
       </c>
-      <c r="D396" s="1">
+      <c r="D396" s="4">
         <v>45290</v>
       </c>
     </row>
@@ -6007,17 +6010,18 @@
       <c r="A397" t="s">
         <v>4</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C397" t="s">
         <v>10</v>
       </c>
-      <c r="D397" s="1">
+      <c r="D397" s="4">
         <v>45291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>